--- a/archivo gastos personales y precio hora.xlsx
+++ b/archivo gastos personales y precio hora.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>Costos mensuales particulares</t>
   </si>
@@ -48,31 +48,16 @@
     <t>Costo mensual</t>
   </si>
   <si>
-    <t>Incluir</t>
-  </si>
-  <si>
     <t>Precio hora costo</t>
-  </si>
-  <si>
-    <t>contingencias (30%)</t>
   </si>
   <si>
     <t>Hora costo 1</t>
   </si>
   <si>
-    <t>Reuniones y creativas</t>
-  </si>
-  <si>
     <t>Hora costo 2</t>
   </si>
   <si>
-    <t>Solucion de fixes y bugs</t>
-  </si>
-  <si>
     <t>Hora costo 3</t>
-  </si>
-  <si>
-    <t>Comunicación(15%)</t>
   </si>
   <si>
     <t>EJEMPLO DE CÁLCULO DE HORAS PARA UNA LANDING PAGE CON FORMULARIO DE CONTACTO</t>
@@ -341,24 +326,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FFB7B7B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -504,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -517,20 +490,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -538,28 +504,11 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -578,87 +527,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -672,9 +551,100 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74:D84"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -906,21 +876,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>55</v>
+      <c r="A2" s="32" t="s">
+        <v>50</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -949,11 +919,11 @@
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>57</v>
+      <c r="B6" s="16" t="s">
+        <v>52</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>58</v>
+      <c r="C6" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -980,14 +950,14 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>56</v>
+      <c r="A7" s="14" t="s">
+        <v>51</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="17">
         <v>5000</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>59</v>
+      <c r="C7" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1017,11 +987,11 @@
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="18">
         <v>1500</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>61</v>
+      <c r="C8" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1051,11 +1021,11 @@
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="18">
         <v>7000</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>60</v>
+      <c r="C9" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1085,10 +1055,10 @@
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="18">
         <v>500</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1117,10 +1087,10 @@
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="18">
         <v>500</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1149,10 +1119,10 @@
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="18">
         <v>5000</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1181,10 +1151,10 @@
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="18">
         <v>2000</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1211,8 +1181,8 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1239,8 +1209,8 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1267,8 +1237,8 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1295,8 +1265,8 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1420,10 +1390,8 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1447,7 +1415,7 @@
     </row>
     <row r="22" spans="1:26" ht="25.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="4">
         <f>B21/22/6</f>
@@ -1455,10 +1423,8 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1482,7 +1448,7 @@
     </row>
     <row r="23" spans="1:26" ht="30" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="4">
         <f>B22*2</f>
@@ -1490,10 +1456,8 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="8"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1517,7 +1481,7 @@
     </row>
     <row r="24" spans="1:26" ht="38.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B24" s="4">
         <f>B22*3</f>
@@ -1525,10 +1489,8 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="8"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1552,7 +1514,7 @@
     </row>
     <row r="25" spans="1:26" ht="29.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B25" s="4">
         <f>B22*4</f>
@@ -1560,10 +1522,8 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="8"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1590,8 +1550,8 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1642,14 +1602,14 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="17" t="s">
-        <v>18</v>
+      <c r="A28" s="57" t="s">
+        <v>13</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1700,14 +1660,14 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>19</v>
+      <c r="A30" s="7" t="s">
+        <v>14</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>20</v>
+      <c r="B30" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1733,7 +1693,7 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B31" s="5">
         <v>5</v>
@@ -1765,7 +1725,7 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B32" s="5">
         <v>5</v>
@@ -1797,7 +1757,7 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B33" s="5">
         <v>5</v>
@@ -1829,7 +1789,7 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -1861,13 +1821,13 @@
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B35" s="5">
         <v>5</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>26</v>
+      <c r="C35" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1895,7 +1855,7 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B36" s="5">
         <v>5</v>
@@ -1927,7 +1887,7 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B37" s="5">
         <v>5</v>
@@ -1958,10 +1918,10 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>29</v>
+      <c r="A38" s="6" t="s">
+        <v>24</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="10">
         <v>3</v>
       </c>
       <c r="C38" s="2"/>
@@ -1990,10 +1950,10 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>30</v>
+      <c r="A39" s="6" t="s">
+        <v>25</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="10">
         <f>B37*30/100</f>
         <v>1.5</v>
       </c>
@@ -2024,7 +1984,7 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="13">
+      <c r="B40" s="10">
         <f>SUM(B37+B38+B39)</f>
         <v>9.5</v>
       </c>
@@ -2085,12 +2045,12 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A42" s="35" t="s">
-        <v>62</v>
+      <c r="A42" s="59" t="s">
+        <v>57</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2115,14 +2075,14 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="57" customHeight="1">
-      <c r="A43" s="36" t="s">
-        <v>31</v>
+      <c r="A43" s="23" t="s">
+        <v>26</v>
       </c>
-      <c r="B43" s="43" t="s">
-        <v>63</v>
+      <c r="B43" s="60" t="s">
+        <v>58</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2147,14 +2107,14 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A44" s="37" t="s">
-        <v>32</v>
+      <c r="A44" s="24" t="s">
+        <v>27</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>64</v>
+      <c r="B44" s="61" t="s">
+        <v>59</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2182,7 +2142,7 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="14"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2207,17 +2167,17 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A46" s="15" t="s">
-        <v>33</v>
+      <c r="A46" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>34</v>
+      <c r="B46" s="12" t="s">
+        <v>29</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>35</v>
+      <c r="C46" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>36</v>
+      <c r="D46" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2243,16 +2203,16 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A47" s="54" t="s">
-        <v>71</v>
+      <c r="A47" s="40" t="s">
+        <v>66</v>
       </c>
-      <c r="B47" s="48" t="s">
-        <v>65</v>
+      <c r="B47" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="25">
         <v>3</v>
       </c>
       <c r="E47" s="2"/>
@@ -2279,12 +2239,12 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="49"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D48" s="26">
         <v>2</v>
       </c>
       <c r="E48" s="2"/>
@@ -2311,14 +2271,14 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="51" t="s">
-        <v>66</v>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42" t="s">
+        <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="25">
         <v>3</v>
       </c>
       <c r="E49" s="2"/>
@@ -2345,12 +2305,12 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A50" s="39"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="25">
         <v>2</v>
       </c>
       <c r="E50" s="2"/>
@@ -2377,14 +2337,14 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A51" s="39"/>
-      <c r="B51" s="38" t="s">
-        <v>43</v>
+      <c r="A51" s="41"/>
+      <c r="B51" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D51" s="26">
         <v>1</v>
       </c>
       <c r="E51" s="2"/>
@@ -2411,12 +2371,12 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A52" s="39"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="25">
         <v>3</v>
       </c>
       <c r="E52" s="2"/>
@@ -2443,12 +2403,12 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A53" s="39"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
-      <c r="D53" s="52">
+      <c r="D53" s="25">
         <v>1</v>
       </c>
       <c r="E53" s="2"/>
@@ -2475,13 +2435,13 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A54" s="39"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
-      <c r="D54" s="53" t="s">
-        <v>39</v>
+      <c r="D54" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2507,14 +2467,14 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A55" s="40"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
-      <c r="D55" s="52">
+      <c r="D55" s="25">
         <v>2</v>
       </c>
       <c r="E55" s="2"/>
@@ -2541,16 +2501,16 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A56" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="51" t="s">
+      <c r="A56" s="40" t="s">
         <v>67</v>
       </c>
+      <c r="B56" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="25">
         <v>5</v>
       </c>
       <c r="E56" s="2"/>
@@ -2577,12 +2537,12 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A57" s="39"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
-      <c r="D57" s="52">
+      <c r="D57" s="25">
         <v>6</v>
       </c>
       <c r="E57" s="2"/>
@@ -2609,14 +2569,14 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A58" s="39"/>
-      <c r="B58" s="51" t="s">
-        <v>68</v>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
-      <c r="D58" s="52">
+      <c r="D58" s="25">
         <v>5</v>
       </c>
       <c r="E58" s="2"/>
@@ -2643,12 +2603,12 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A59" s="39"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="25">
         <v>4</v>
       </c>
       <c r="E59" s="2"/>
@@ -2675,14 +2635,14 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A60" s="39"/>
-      <c r="B60" s="51" t="s">
-        <v>69</v>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="26">
         <v>5</v>
       </c>
       <c r="E60" s="2"/>
@@ -2709,12 +2669,12 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A61" s="39"/>
-      <c r="B61" s="22"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="25">
         <v>4</v>
       </c>
       <c r="E61" s="2"/>
@@ -2741,14 +2701,14 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A62" s="39"/>
-      <c r="B62" s="51" t="s">
-        <v>70</v>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="25">
         <v>3</v>
       </c>
       <c r="E62" s="2"/>
@@ -2775,12 +2735,12 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A63" s="39"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
-      <c r="D63" s="52">
+      <c r="D63" s="25">
         <v>2</v>
       </c>
       <c r="E63" s="2"/>
@@ -2807,16 +2767,16 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A64" s="54" t="s">
-        <v>73</v>
+      <c r="A64" s="40" t="s">
+        <v>68</v>
       </c>
-      <c r="B64" s="58" t="s">
-        <v>75</v>
+      <c r="B64" s="51" t="s">
+        <v>70</v>
       </c>
-      <c r="C64" s="48" t="s">
-        <v>74</v>
+      <c r="C64" s="36" t="s">
+        <v>69</v>
       </c>
-      <c r="D64" s="38">
+      <c r="D64" s="33">
         <v>6</v>
       </c>
       <c r="E64" s="2"/>
@@ -2843,10 +2803,10 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A65" s="39"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="45"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="35"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2871,14 +2831,14 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A66" s="39"/>
-      <c r="B66" s="60" t="s">
-        <v>76</v>
+      <c r="A66" s="41"/>
+      <c r="B66" s="49" t="s">
+        <v>71</v>
       </c>
-      <c r="C66" s="58" t="s">
-        <v>77</v>
+      <c r="C66" s="51" t="s">
+        <v>72</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="53">
         <v>4</v>
       </c>
       <c r="E66" s="2"/>
@@ -2905,10 +2865,10 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A67" s="39"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="55"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="54"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2933,14 +2893,14 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A68" s="39"/>
-      <c r="B68" s="60" t="s">
-        <v>78</v>
+      <c r="A68" s="41"/>
+      <c r="B68" s="49" t="s">
+        <v>73</v>
       </c>
-      <c r="C68" s="50" t="s">
-        <v>79</v>
+      <c r="C68" s="55" t="s">
+        <v>74</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="53">
         <v>5</v>
       </c>
       <c r="E68" s="2"/>
@@ -2967,10 +2927,10 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A69" s="39"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -2995,16 +2955,16 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A70" s="38" t="s">
-        <v>47</v>
+      <c r="A70" s="33" t="s">
+        <v>42</v>
       </c>
-      <c r="B70" s="51" t="s">
-        <v>82</v>
+      <c r="B70" s="42" t="s">
+        <v>77</v>
       </c>
-      <c r="C70" s="48" t="s">
-        <v>83</v>
+      <c r="C70" s="36" t="s">
+        <v>78</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="53">
         <v>8</v>
       </c>
       <c r="E70" s="2"/>
@@ -3031,10 +2991,10 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A71" s="39"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="55"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -3059,14 +3019,14 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A72" s="39"/>
-      <c r="B72" s="62" t="s">
-        <v>84</v>
+      <c r="A72" s="41"/>
+      <c r="B72" s="45" t="s">
+        <v>79</v>
       </c>
-      <c r="C72" s="58" t="s">
-        <v>85</v>
+      <c r="C72" s="51" t="s">
+        <v>80</v>
       </c>
-      <c r="D72" s="38">
+      <c r="D72" s="33">
         <v>2</v>
       </c>
       <c r="E72" s="2"/>
@@ -3093,10 +3053,10 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="45"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="35"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -3121,16 +3081,16 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A74" s="38" t="s">
-        <v>48</v>
+      <c r="A74" s="33" t="s">
+        <v>43</v>
       </c>
-      <c r="B74" s="47" t="s">
-        <v>80</v>
+      <c r="B74" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
-      <c r="D74" s="52">
+      <c r="D74" s="25">
         <v>1</v>
       </c>
       <c r="E74" s="2"/>
@@ -3157,12 +3117,12 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A75" s="39"/>
-      <c r="B75" s="46"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
-      <c r="D75" s="53">
+      <c r="D75" s="26">
         <v>1</v>
       </c>
       <c r="E75" s="2"/>
@@ -3189,14 +3149,14 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A76" s="39"/>
-      <c r="B76" s="47" t="s">
-        <v>81</v>
+      <c r="A76" s="41"/>
+      <c r="B76" s="46" t="s">
+        <v>76</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="25">
         <v>3</v>
       </c>
       <c r="E76" s="2"/>
@@ -3223,12 +3183,12 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A77" s="39"/>
-      <c r="B77" s="46"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
-      <c r="D77" s="53">
+      <c r="D77" s="26">
         <v>2</v>
       </c>
       <c r="E77" s="2"/>
@@ -3255,12 +3215,12 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A78" s="39"/>
-      <c r="B78" s="23" t="s">
-        <v>49</v>
+      <c r="A78" s="41"/>
+      <c r="B78" s="48" t="s">
+        <v>44</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="53"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -3285,12 +3245,12 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A79" s="40"/>
-      <c r="B79" s="22"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
-      <c r="D79" s="52">
+      <c r="D79" s="25">
         <v>4</v>
       </c>
       <c r="E79" s="2"/>
@@ -3317,16 +3277,16 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A80" s="64" t="s">
-        <v>50</v>
+      <c r="A80" s="28" t="s">
+        <v>45</v>
       </c>
-      <c r="B80" s="65" t="s">
-        <v>86</v>
+      <c r="B80" s="29" t="s">
+        <v>81</v>
       </c>
-      <c r="C80" s="63" t="s">
-        <v>37</v>
+      <c r="C80" s="27" t="s">
+        <v>32</v>
       </c>
-      <c r="D80" s="66">
+      <c r="D80" s="30">
         <v>2</v>
       </c>
       <c r="E80" s="2"/>
@@ -3353,16 +3313,16 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A81" s="41" t="s">
-        <v>51</v>
+      <c r="A81" s="38" t="s">
+        <v>46</v>
       </c>
-      <c r="B81" s="24" t="s">
-        <v>52</v>
+      <c r="B81" s="44" t="s">
+        <v>47</v>
       </c>
-      <c r="C81" s="16" t="s">
-        <v>37</v>
+      <c r="C81" s="13" t="s">
+        <v>32</v>
       </c>
-      <c r="D81" s="67">
+      <c r="D81" s="31">
         <v>2</v>
       </c>
       <c r="E81" s="2"/>
@@ -3389,12 +3349,12 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A82" s="40"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="16" t="s">
-        <v>38</v>
+      <c r="A82" s="39"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="13" t="s">
+        <v>33</v>
       </c>
-      <c r="D82" s="67">
+      <c r="D82" s="31">
         <v>2</v>
       </c>
       <c r="E82" s="2"/>
@@ -3421,14 +3381,14 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A83" s="41" t="s">
-        <v>53</v>
+      <c r="A83" s="38" t="s">
+        <v>48</v>
       </c>
-      <c r="B83" s="24" t="s">
-        <v>54</v>
+      <c r="B83" s="44" t="s">
+        <v>49</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="67"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="31"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -3453,10 +3413,10 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A84" s="40"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="67">
+      <c r="A84" s="39"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="31">
         <v>8</v>
       </c>
       <c r="E84" s="2"/>
@@ -29468,11 +29428,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="A56:A63"/>
     <mergeCell ref="B56:B57"/>
@@ -29489,6 +29451,11 @@
     <mergeCell ref="A64:A69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A81:A82"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="C68:C69"/>
@@ -29500,13 +29467,6 @@
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
